--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6354660-2102-8F4C-9E9A-15C34C21C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2142FE03-F94B-D74D-87BE-73A73DCFACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17320" firstSheet="3" activeTab="3" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17320" activeTab="1" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Excelta" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="EREM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="439">
   <si>
     <t>Size</t>
   </si>
@@ -764,45 +765,6 @@
     <t>ES5250.CR.BG</t>
   </si>
   <si>
-    <t>KSPRING</t>
-  </si>
-  <si>
-    <t>28.5mm</t>
-  </si>
-  <si>
-    <t>1.12"</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>KSPRING-S</t>
-  </si>
-  <si>
-    <t>29mm</t>
-  </si>
-  <si>
-    <t>1.14"</t>
-  </si>
-  <si>
-    <t>WLC100</t>
-  </si>
-  <si>
-    <t>23mm</t>
-  </si>
-  <si>
-    <t>0.91"</t>
-  </si>
-  <si>
-    <t>WLC125</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>0.94"</t>
-  </si>
-  <si>
     <t>ES141TX.CR.BGO</t>
   </si>
   <si>
@@ -899,9 +861,6 @@
     <t>https://www.buypt.com/product/Swanstrom-M405C-Small-Tapered-Head-Ultra-Sharp-Full-Flush-Carbide-Cutter.-Medical-Grade/78325/</t>
   </si>
   <si>
-    <t>M406C</t>
-  </si>
-  <si>
     <t>M4051C</t>
   </si>
   <si>
@@ -1106,9 +1065,6 @@
     <t>https://www.buypt.com/product/Erem-2432E-5inch-Oval-Head-Super-Full-Cutter-Ergonomic-Handles/73357/</t>
   </si>
   <si>
-    <t>2432EW</t>
-  </si>
-  <si>
     <t>2470E</t>
   </si>
   <si>
@@ -1145,9 +1101,6 @@
     <t>https://www.buypt.com/product/Erem-2477E-5inch-Small-Oval-Head-Full-Flush-Cutter-With-Ergonomic-Handles/73361/</t>
   </si>
   <si>
-    <t>2477EW</t>
-  </si>
-  <si>
     <t>2482E</t>
   </si>
   <si>
@@ -1350,6 +1303,60 @@
   </si>
   <si>
     <t>https://www.buypt.com/product/Erem-792E-4-12inch-Long-Tapered-Relieved-Head-Cutter/94804/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.buypt.com/product/ES5150.CR.BG-Cutter-High-Precision-ideal-tek/64894/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5151.CR.BG-High-precision-Ergo-tek-Slim-Cutters-Large-Oval-head-flush.-OAL:-125mm-4.92.-ESD-safe/64895/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Ideal-tec-ES5152.CR.BG-High-precision-Ergo-tek-Slim-Cutters-Large-Oval-head-OAL:-125mm-4.92.-ESD-safe/64896/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Ideal-tecES5161L.CR.BGS-High-precision-Ergo-tek-Slim-Cutters-Extra-Large-Rounded-Oval-head-flush.-OAL:-125mm-4.92.-ESD-safe/64897/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/7173E-Laser-Flush-Cutter-Medium-Taper-Excelta/64892/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Weller-Erem-2422EB-Cutter-ESD-Safe-Flush-Round-Tip-Tapered-Relieved-Head-5-2400-Magic-Series/64906/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Weller-Erem-2422E-Cutter-ESD-Safe-Flush-Oval-Head-5-Side-Flush-Cut-2400-Magic-Sense-Series/64907/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/530E12-4-34-ESD-Safe-Flush-0.047-Fixed-Length-Distance-Cutter-Weller-Erem/64909/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/530E13-Weller-Erem-4-34-ESD-Safe-Flush-0.051-Fixed-Length-Distance-Cutter/64910/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Erem-530E15A-Flush-Distance-Cutter-1.2-mm-to-6-mm-Variable-Cutting-Length/64911/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/549E10-4-34-ESD-Safe-Flush-45%C2%B0-Tapered-0.039-Fixed-Length-Distance-Cutter-Weller-Erem/64912/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/549E12-4-34-ESD-Safe-Flush-45%C2%B0-Tapered-0.047-Fixed-Length-Distance-Cutter-Weller-Erem/64913/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/504AE-Cutter-Medium-Flush-4-14-ESD-Safe-Flush-Angled-Wide-Head-Tip-Weller-erem/64914/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/523E-Weller-Erem-4-14-ESD-Safe-Flush-Angled-Wide-Oval-Head-Tip-Cutter/64915/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Item-No.:-530EREC-4-34-ESD-Safe-Flush-0.051-Fixed-Length-Distance-Cutter/64916/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Erem-Wller-555E-4-34-ESD-Safe-Flush-Angled-Narrow-Head-Tip-Cutter/64917/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/2476TX1W-5-ESD-Safe-Flush-Tapered-Head-Side-Cutter-with-Wire-Holder-Weller/64908/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Weller-Erem-575E-Cutter-ESD-Safe-Flush-Angled-Narrow-Head-Tip-4.25-500-Medium-Series/95038/</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1528,13 +1535,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1872,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99344F-81E2-BA47-894F-A255B1AD062C}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1924,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1954,7 +1962,7 @@
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2024,7 +2032,7 @@
       <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2059,7 +2067,7 @@
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2129,7 +2137,7 @@
       <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2164,7 +2172,7 @@
       <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2199,7 +2207,7 @@
       <c r="J9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2234,7 +2242,7 @@
       <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2269,7 +2277,7 @@
       <c r="J11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2304,7 +2312,7 @@
       <c r="J12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2686,7 +2694,7 @@
       <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2759,7 +2767,7 @@
       <c r="J25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3114,37 +3122,37 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3316,7 +3324,7 @@
       <c r="I41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="20" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -3324,38 +3332,38 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>30</v>
+      <c r="K42" s="24" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3511,6 +3519,7 @@
     <hyperlink ref="K5" r:id="rId9" xr:uid="{554E56EE-9A71-4A5E-943F-80513308F4B5}"/>
     <hyperlink ref="K25" r:id="rId10" xr:uid="{112D7A31-330A-4DC4-84E8-EFFD9AC3D674}"/>
     <hyperlink ref="K36" r:id="rId11" xr:uid="{1ECA5FB5-62BF-41AD-903A-1259CEAD0897}"/>
+    <hyperlink ref="K42" r:id="rId12" xr:uid="{61F7864A-3303-304A-B8A3-54A81A5000AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3518,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C7E8-D2AB-7745-83FB-7F891146BD90}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3540,7 +3549,7 @@
     <col min="12" max="12" width="25.83203125" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="99.6640625" customWidth="1"/>
+    <col min="15" max="15" width="157" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -3583,7 +3592,7 @@
       <c r="M1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>175</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -3732,144 +3741,144 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>30</v>
+      <c r="O5" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>30</v>
+      <c r="O6" s="24" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>30</v>
+      <c r="O7" s="24" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3920,50 +3929,50 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>30</v>
+      <c r="O9" s="24" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4625,214 +4634,214 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="B24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="C24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N24" s="15" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="O24" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="B25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="M25" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="N25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="N25" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>30</v>
+      <c r="E27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>188</v>
@@ -4856,201 +4865,16 @@
         <v>185</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O29" r:id="rId1" xr:uid="{E112F831-0548-4FD2-88C6-FA292616185F}"/>
-    <hyperlink ref="O30" r:id="rId2" xr:uid="{4EA3681D-9288-4817-AEAE-BA35DF0A04B4}"/>
+    <hyperlink ref="O25" r:id="rId1" xr:uid="{E112F831-0548-4FD2-88C6-FA292616185F}"/>
+    <hyperlink ref="O26" r:id="rId2" xr:uid="{4EA3681D-9288-4817-AEAE-BA35DF0A04B4}"/>
+    <hyperlink ref="O6" r:id="rId3" xr:uid="{9CAABC85-E455-C84D-935D-3CFEA7995EC8}"/>
+    <hyperlink ref="O7" r:id="rId4" xr:uid="{D994AC30-79A1-0D42-BBA4-4A240EC664CA}"/>
+    <hyperlink ref="O9" r:id="rId5" xr:uid="{E22F2BA0-EF7C-9348-8FE3-4612C48A4112}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5058,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F946966-F053-D649-B3B7-4D418F3A2D00}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5078,19 +4902,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>9</v>
@@ -5105,7 +4929,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>191</v>
@@ -5114,7 +4938,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -5123,24 +4947,24 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -5149,15 +4973,15 @@
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>191</v>
@@ -5166,7 +4990,7 @@
         <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>124</v>
@@ -5175,15 +4999,15 @@
         <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>191</v>
@@ -5192,7 +5016,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -5201,24 +5025,24 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>124</v>
@@ -5227,15 +5051,15 @@
         <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>282</v>
+        <v>265</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>191</v>
@@ -5244,24 +5068,24 @@
         <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>191</v>
@@ -5270,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -5279,41 +5103,41 @@
         <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>191</v>
@@ -5322,7 +5146,7 @@
         <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>153</v>
@@ -5331,93 +5155,93 @@
         <v>154</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>30</v>
+      <c r="D11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
+      <c r="G12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>30</v>
+      <c r="D13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>191</v>
@@ -5426,7 +5250,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
@@ -5435,41 +5259,41 @@
         <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>191</v>
@@ -5478,7 +5302,7 @@
         <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>118</v>
@@ -5487,15 +5311,15 @@
         <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>191</v>
@@ -5504,50 +5328,50 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>191</v>
@@ -5556,24 +5380,24 @@
         <v>151</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>191</v>
@@ -5582,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>77</v>
@@ -5591,41 +5415,41 @@
         <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>191</v>
@@ -5634,180 +5458,180 @@
         <v>151</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>295</v>
+      <c r="A27" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>45</v>
@@ -5816,50 +5640,50 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>298</v>
+      <c r="A30" t="s">
+        <v>287</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
@@ -5868,180 +5692,180 @@
         <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>301</v>
+      <c r="A33" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B37" t="s">
-        <v>191</v>
+        <v>291</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -6050,50 +5874,50 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>45</v>
@@ -6102,76 +5926,76 @@
         <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>45</v>
@@ -6180,76 +6004,76 @@
         <v>151</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -6258,24 +6082,24 @@
         <v>151</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -6284,50 +6108,50 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>45</v>
@@ -6336,104 +6160,26 @@
         <v>151</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{67F85702-9BD6-4D27-B81D-1F265CFAB026}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{01B1DEB6-5177-4A9E-9D4D-08368BD13F2B}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{D38F6CC7-B38E-48C8-BDEF-AC883106E48B}"/>
+    <hyperlink ref="H15" r:id="rId3" xr:uid="{D38F6CC7-B38E-48C8-BDEF-AC883106E48B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6441,10 +6187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDAA0B-7D3C-CB48-AF3C-302507FA705C}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="A25" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6459,7 +6205,7 @@
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="113.33203125" customWidth="1"/>
+    <col min="11" max="11" width="116.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -6467,57 +6213,57 @@
         <v>162</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>30</v>
@@ -6526,33 +6272,33 @@
         <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>333</v>
+        <v>318</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>30</v>
@@ -6561,138 +6307,138 @@
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>30</v>
@@ -6701,313 +6447,313 @@
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>30</v>
+      <c r="D9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>30</v>
+      <c r="F14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>30</v>
@@ -7016,97 +6762,97 @@
         <v>30</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>30</v>
+      <c r="D17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>369</v>
+      <c r="A18" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>30</v>
@@ -7121,132 +6867,132 @@
         <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>375</v>
+        <v>358</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>30</v>
+      <c r="D20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>30</v>
+      <c r="D21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>30</v>
+      <c r="D22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>30</v>
@@ -7261,138 +7007,138 @@
         <v>30</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>382</v>
+        <v>365</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>30</v>
@@ -7401,208 +7147,208 @@
         <v>30</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>389</v>
+        <v>318</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>30</v>
+      <c r="A29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>396</v>
+        <v>323</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>329</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>396</v>
+        <v>323</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>30</v>
@@ -7611,33 +7357,33 @@
         <v>30</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>399</v>
+        <v>323</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>329</v>
+      <c r="D34" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>30</v>
@@ -7646,33 +7392,33 @@
         <v>30</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>399</v>
+        <v>318</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>30</v>
@@ -7681,138 +7427,138 @@
         <v>30</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>399</v>
+        <v>388</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>406</v>
+      <c r="D38" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>30</v>
@@ -7821,68 +7567,68 @@
         <v>30</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>30</v>
+      <c r="D40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>30</v>
@@ -7891,173 +7637,173 @@
         <v>30</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>411</v>
+      <c r="D42" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>413</v>
+        <v>318</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>30</v>
+      <c r="D44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>416</v>
+        <v>318</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>30</v>
@@ -8066,33 +7812,33 @@
         <v>30</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>418</v>
+        <v>318</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>30</v>
@@ -8101,33 +7847,33 @@
         <v>30</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="K47" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>30</v>
@@ -8136,33 +7882,33 @@
         <v>30</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>30</v>
@@ -8171,33 +7917,33 @@
         <v>30</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K49" t="s">
-        <v>423</v>
+        <v>323</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>30</v>
@@ -8206,33 +7952,33 @@
         <v>30</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>30</v>
@@ -8241,33 +7987,33 @@
         <v>30</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>30</v>
@@ -8276,33 +8022,33 @@
         <v>30</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>30</v>
@@ -8311,33 +8057,33 @@
         <v>30</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>30</v>
@@ -8346,139 +8092,81 @@
         <v>30</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>337</v>
+      <c r="A55" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{B44D3234-D62F-4AA9-B108-9D8C7D2A90F9}"/>
-    <hyperlink ref="K34" r:id="rId2" xr:uid="{A0E8AD0C-2EEC-4D92-B578-FD1DA2810EBD}"/>
-    <hyperlink ref="K31" r:id="rId3" xr:uid="{C650ED0E-8A44-4341-AABF-29BFD75117A8}"/>
-    <hyperlink ref="K35" r:id="rId4" xr:uid="{1DF17780-86D9-47A5-AC41-7CBC60E967D4}"/>
-    <hyperlink ref="K33" r:id="rId5" xr:uid="{ADB69B93-D4F2-422C-A8E5-1720537CF180}"/>
-    <hyperlink ref="K42" r:id="rId6" xr:uid="{ACA3D0D1-1EEB-44EC-A1BD-CF8161109AB7}"/>
-    <hyperlink ref="K43" r:id="rId7" xr:uid="{9FCBA944-7291-4361-A6B5-73820656B5E3}"/>
-    <hyperlink ref="K46" r:id="rId8" xr:uid="{57677B7B-4A96-408A-9BA8-5B2F9838C0A9}"/>
+    <hyperlink ref="K32" r:id="rId2" xr:uid="{A0E8AD0C-2EEC-4D92-B578-FD1DA2810EBD}"/>
+    <hyperlink ref="K29" r:id="rId3" xr:uid="{C650ED0E-8A44-4341-AABF-29BFD75117A8}"/>
+    <hyperlink ref="K33" r:id="rId4" xr:uid="{1DF17780-86D9-47A5-AC41-7CBC60E967D4}"/>
+    <hyperlink ref="K31" r:id="rId5" xr:uid="{ADB69B93-D4F2-422C-A8E5-1720537CF180}"/>
+    <hyperlink ref="K40" r:id="rId6" xr:uid="{ACA3D0D1-1EEB-44EC-A1BD-CF8161109AB7}"/>
+    <hyperlink ref="K41" r:id="rId7" xr:uid="{9FCBA944-7291-4361-A6B5-73820656B5E3}"/>
+    <hyperlink ref="K44" r:id="rId8" xr:uid="{57677B7B-4A96-408A-9BA8-5B2F9838C0A9}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{B1B665B9-6DFF-8340-BD31-DEB2C889BFC3}"/>
+    <hyperlink ref="K9" r:id="rId10" xr:uid="{377EAE71-99D6-8548-B65D-AF60454FB875}"/>
+    <hyperlink ref="K18" r:id="rId11" xr:uid="{5F69C026-15BA-EB43-A45D-6D7319DB706C}"/>
+    <hyperlink ref="K19" r:id="rId12" xr:uid="{C40AD231-B688-4F44-9FD5-2929BF8DBC52}"/>
+    <hyperlink ref="K20" r:id="rId13" xr:uid="{3296F621-E781-0348-82B3-ACCC9D085D0A}"/>
+    <hyperlink ref="K23" r:id="rId14" xr:uid="{C65D23B3-99C2-994B-9869-67CF347F0477}"/>
+    <hyperlink ref="K27" r:id="rId15" xr:uid="{ABF502FD-31CF-4140-B956-87D223670C78}"/>
+    <hyperlink ref="K34" r:id="rId16" xr:uid="{4AA85B6C-9862-134D-9F25-6EA47E98E31A}"/>
+    <hyperlink ref="K35" r:id="rId17" xr:uid="{0C704B91-C38B-464D-A0C3-1EDA79E4F785}"/>
+    <hyperlink ref="K38" r:id="rId18" xr:uid="{62137EA1-7ED2-424C-B77E-EC826B22A139}"/>
+    <hyperlink ref="K13" r:id="rId19" xr:uid="{2BC72F69-A66F-5F45-825A-A0476B73D233}"/>
+    <hyperlink ref="K42" r:id="rId20" xr:uid="{A12CB923-E599-8D49-9203-2BD2552AD601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2142FE03-F94B-D74D-87BE-73A73DCFACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB423948-DC48-6948-8AEA-A235DA09E47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17320" activeTab="1" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="EREM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="456">
   <si>
     <t>Size</t>
   </si>
@@ -1357,6 +1356,57 @@
   </si>
   <si>
     <t>https://www.buypt.com/product/Weller-Erem-575E-Cutter-ESD-Safe-Flush-Angled-Narrow-Head-Tip-4.25-500-Medium-Series/95038/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Excelta-9232SL-Cutters-Small-Oval-Head-Laser-Flush-Slim-Line/55859/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/7251E-4-78-Lg-Rd-Mf-Cutter-Excelta/92438/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/7260E-Cutters-Very-Large-Oval-Head-Excelta/62979/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/7371E-Excelta-Cutters-Cutters-Carbon-Steel-Long-Nose-Fine-Tip-Relieved-Head/64068/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5140.CR.BG-Cutters-Ergo-tek-Ideal-Tek/64722/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5162L.CR.BGS-Ideal-Tek-High-precision-Ergo-tek-Slim-Cutters/64898/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5341.CR.BG-High-precision-Ergo-tek-Slim-Cutters-Small-Tapered-head-flush./63746/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/Excelta-9250E-Large-Oval-Head-Semi-Flush-Designed-for-cutting-large-soft-wire./92436/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5340-Ideal-TekCutter-Small-Tapered-head-semi-flush.OAL:-120mm-4.72/64643/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5342.CR.BGcutterIdeal-Tek/64471/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5350.CR.BG-High-precision-Ergo-tek-Slim-Cutters-Large-Tapered-head-Ideal-Tek/64899/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5351.CR.BG-High-precision-Slim-Cutters-Large-Tapered-head-flush.-Ideal-Tek/64900/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5352.CR.BG-High-precision-CuttersLarge-Tapered-head-full-flush.-OAL:-125mm-4.92-Ideal-Tek/64546/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5541.CR.BG-High-precision-Ergo-tek-Slim-Cutters-Small-Tapered-and-Relieved-head-Ideal-Tek/64902/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5441M.CR.BGO.ITU-Cutter-Ideal-Tek/64474/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5247.CR.BGIdeal-TekHigh-precision-Ergo-tek-Slim-CuttersOblique-head-full-flush/64773/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5250.CR.BG-Ideal-Tek-High-precision-Ergo-tek-Slim-Cutters-Large-Oblique-head-full-flush/64903/</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1583,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1542,7 +1590,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1880,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99344F-81E2-BA47-894F-A255B1AD062C}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A2" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1974,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1962,7 +2012,7 @@
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2032,7 +2082,7 @@
       <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2067,43 +2117,43 @@
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>30</v>
+      <c r="K6" s="22" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2137,7 +2187,7 @@
       <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2172,7 +2222,7 @@
       <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2207,7 +2257,7 @@
       <c r="J9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2242,7 +2292,7 @@
       <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2277,7 +2327,7 @@
       <c r="J11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2312,7 +2362,7 @@
       <c r="J12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2694,7 +2744,7 @@
       <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2767,7 +2817,7 @@
       <c r="J25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2807,108 +2857,108 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>30</v>
+      <c r="K27" s="22" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>30</v>
+      <c r="K28" s="22" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>30</v>
+      <c r="K29" s="22" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2947,38 +2997,38 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>30</v>
+      <c r="K31" s="22" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3152,7 +3202,7 @@
       <c r="J36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="22" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3324,7 +3374,7 @@
       <c r="I41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="18" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -3362,7 +3412,7 @@
       <c r="J42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="22" t="s">
         <v>425</v>
       </c>
     </row>
@@ -3520,6 +3570,11 @@
     <hyperlink ref="K25" r:id="rId10" xr:uid="{112D7A31-330A-4DC4-84E8-EFFD9AC3D674}"/>
     <hyperlink ref="K36" r:id="rId11" xr:uid="{1ECA5FB5-62BF-41AD-903A-1259CEAD0897}"/>
     <hyperlink ref="K42" r:id="rId12" xr:uid="{61F7864A-3303-304A-B8A3-54A81A5000AD}"/>
+    <hyperlink ref="K6" r:id="rId13" xr:uid="{C25861F2-4012-EB4F-AF5A-B929942390D6}"/>
+    <hyperlink ref="K28" r:id="rId14" xr:uid="{F94FC356-FE9D-A04E-827E-D68C060E26FF}"/>
+    <hyperlink ref="K29" r:id="rId15" xr:uid="{9B30B646-3781-7B42-91C3-677AF952D8CE}"/>
+    <hyperlink ref="K31" r:id="rId16" xr:uid="{FF868B76-4732-B847-8E96-43988CE8031C}"/>
+    <hyperlink ref="K27" r:id="rId17" xr:uid="{A0F54FE6-4F0C-F54C-9824-0639F3EDE07D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3530,7 +3585,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3647,7 @@
       <c r="M1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>175</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -3600,50 +3655,50 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>30</v>
+      <c r="O2" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3830,7 +3885,7 @@
       <c r="N6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="22" t="s">
         <v>422</v>
       </c>
     </row>
@@ -3877,7 +3932,7 @@
       <c r="N7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="22" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3971,337 +4026,337 @@
       <c r="N9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="22" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="O10" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>30</v>
+      <c r="O11" s="22" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="O12" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="O13" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="O14" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="O15" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="13" t="s">
-        <v>30</v>
+      <c r="O16" s="23" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -4351,145 +4406,145 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O18" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="O18" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O19" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="O19" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O20" s="13" t="s">
-        <v>30</v>
+      <c r="O20" s="22" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -4539,98 +4594,98 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="O22" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="O23" s="13" t="s">
-        <v>30</v>
+      <c r="O23" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -4723,7 +4778,7 @@
       <c r="N25" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="19" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4767,10 +4822,10 @@
       <c r="M26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="19" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4875,6 +4930,17 @@
     <hyperlink ref="O6" r:id="rId3" xr:uid="{9CAABC85-E455-C84D-935D-3CFEA7995EC8}"/>
     <hyperlink ref="O7" r:id="rId4" xr:uid="{D994AC30-79A1-0D42-BBA4-4A240EC664CA}"/>
     <hyperlink ref="O9" r:id="rId5" xr:uid="{E22F2BA0-EF7C-9348-8FE3-4612C48A4112}"/>
+    <hyperlink ref="O2" r:id="rId6" xr:uid="{B41EBDA4-4079-4842-BDC0-95F4DB4651EA}"/>
+    <hyperlink ref="O10" r:id="rId7" xr:uid="{DABCAA97-8514-E342-BE93-D3F8AAF9667F}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{EF91F0C9-0735-354E-A822-43EB45073B7C}"/>
+    <hyperlink ref="O11" r:id="rId9" xr:uid="{C47E890B-BE02-7C4F-AD2A-0CF73243D0D9}"/>
+    <hyperlink ref="O13" r:id="rId10" xr:uid="{381D0380-099D-A141-B3BA-7626AA7B2D15}"/>
+    <hyperlink ref="O14" r:id="rId11" xr:uid="{C4307D2D-CAF1-7B42-B4F8-F23A9EFD37FE}"/>
+    <hyperlink ref="O15" r:id="rId12" xr:uid="{C175168B-1B5F-D24C-851C-AEE67B59F955}"/>
+    <hyperlink ref="O18" r:id="rId13" xr:uid="{C3E8BD76-8934-DB4E-B19D-395EA6A7C2E1}"/>
+    <hyperlink ref="O20" r:id="rId14" xr:uid="{6EAEAA37-3C61-DB47-B008-41CA3EDE1EA4}"/>
+    <hyperlink ref="O22" r:id="rId15" xr:uid="{E822A8F1-7823-2C40-B059-374ED2FEF771}"/>
+    <hyperlink ref="O19" r:id="rId16" xr:uid="{D3110B24-A369-BB40-8D9F-E60C365CC798}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5001,7 +5067,7 @@
       <c r="G4" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5053,7 +5119,7 @@
       <c r="G6" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5287,7 +5353,7 @@
       <c r="G15" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6189,8 +6255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDAA0B-7D3C-CB48-AF3C-302507FA705C}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6239,7 +6305,7 @@
       <c r="J1" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6274,7 +6340,7 @@
       <c r="J2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6484,7 +6550,7 @@
       <c r="J8" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6519,7 +6585,7 @@
       <c r="J9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="22" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6628,38 +6694,38 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="22" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6769,7 +6835,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>356</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6804,7 +6870,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>360</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6834,7 +6900,7 @@
       <c r="J18" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="22" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6869,7 +6935,7 @@
       <c r="J19" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="22" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6904,7 +6970,7 @@
       <c r="J20" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="22" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7009,7 +7075,7 @@
       <c r="J23" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="22" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7149,7 +7215,7 @@
       <c r="J27" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="22" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7219,7 +7285,7 @@
       <c r="J29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="19" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7254,7 +7320,7 @@
       <c r="J30" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="19" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7289,7 +7355,7 @@
       <c r="J31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="19" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7324,7 +7390,7 @@
       <c r="J32" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="19" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7359,7 +7425,7 @@
       <c r="J33" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="19" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7394,7 +7460,7 @@
       <c r="J34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="22" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7429,7 +7495,7 @@
       <c r="J35" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="22" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7503,38 +7569,38 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="25" t="s">
+      <c r="H38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="22" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7604,7 +7670,7 @@
       <c r="J40" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="19" t="s">
         <v>395</v>
       </c>
     </row>
@@ -7639,42 +7705,42 @@
       <c r="J41" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="19" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="25" t="s">
+      <c r="H42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="22" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7744,7 +7810,7 @@
       <c r="J44" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="19" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8173,15 +8239,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002484CCDF91B6A9498E427CFC567100BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0cd3b8c834518d9192193f68f646d00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7ce44ea-a34e-4fdf-a307-9d406be6516a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4202b7b55fbc0c281921e2815b0844d8" ns3:_="">
     <xsd:import namespace="b7ce44ea-a34e-4fdf-a307-9d406be6516a"/>
@@ -8331,21 +8388,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5897BE-483D-4944-B5D5-3A5E4BC2B223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8363,7 +8421,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB09132C-7D10-47B1-BBD2-EDAD89D0ACFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8377,4 +8435,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB423948-DC48-6948-8AEA-A235DA09E47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D49CA53-F58E-F344-BBAA-5AF3E6D397B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17320" activeTab="1" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
+    <workbookView xWindow="14480" yWindow="760" windowWidth="15500" windowHeight="17320" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Excelta" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="456">
   <si>
     <t>Size</t>
   </si>
@@ -107,9 +107,6 @@
     <t>https://www.buypt.com/product/9231SL-Cutter-Optimum-Flush-Excelta/64886/</t>
   </si>
   <si>
-    <t>9232E</t>
-  </si>
-  <si>
     <t>Lazer Flush</t>
   </si>
   <si>
@@ -1407,6 +1404,9 @@
   </si>
   <si>
     <t>https://www.buypt.com/product/ES5250.CR.BG-Ideal-Tek-High-precision-Ergo-tek-Slim-Cutters-Large-Oblique-head-full-flush/64903/</t>
+  </si>
+  <si>
+    <t>https://www.buypt.com/product/ES5141.CR.BG-High-precision-Ergo-tek-Ideal-Tek-Small-Oval-head-cutter/64547/</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1468,12 +1468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1579,10 +1573,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1592,7 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1928,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99344F-81E2-BA47-894F-A255B1AD062C}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1963,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2012,78 +2001,78 @@
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>30</v>
+      <c r="K3" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2094,31 +2083,31 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2126,710 +2115,710 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>439</v>
+      <c r="K6" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>48</v>
+      <c r="K8" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>74</v>
+      <c r="A17" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
@@ -2838,205 +2827,205 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>103</v>
+      <c r="J26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>446</v>
+      <c r="K27" s="18" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>441</v>
+      <c r="K29" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>442</v>
+      <c r="K31" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
@@ -3045,33 +3034,33 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J32" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -3080,33 +3069,33 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
@@ -3115,103 +3104,103 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="I34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="K34" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="H36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="I36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
@@ -3220,33 +3209,33 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
@@ -3255,33 +3244,33 @@
         <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
@@ -3290,291 +3279,256 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="K39" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="H41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="I41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>147</v>
+      <c r="K41" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>425</v>
+        <v>153</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{77FFDA95-263F-E046-8D47-D9884580E758}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{66BC1D43-8B36-4C42-A6BE-AADB464B21FC}"/>
-    <hyperlink ref="K12" r:id="rId3" xr:uid="{B9B279E7-601D-467B-BCC9-81177DF4E43A}"/>
-    <hyperlink ref="K11" r:id="rId4" xr:uid="{E070AC7A-4F8B-4FD2-8137-436AA20A4F01}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{F9C778E3-0440-4BD3-9E35-5159C67C1E0A}"/>
-    <hyperlink ref="K9" r:id="rId6" xr:uid="{A9921424-E7F0-4E43-89D7-A9FD857B4691}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{F3BAC0C6-4BDB-4A22-875C-4FC46E689002}"/>
-    <hyperlink ref="K7" r:id="rId8" xr:uid="{DB8E86BF-11E4-49EB-B0EB-030C207C7D12}"/>
-    <hyperlink ref="K5" r:id="rId9" xr:uid="{554E56EE-9A71-4A5E-943F-80513308F4B5}"/>
-    <hyperlink ref="K25" r:id="rId10" xr:uid="{112D7A31-330A-4DC4-84E8-EFFD9AC3D674}"/>
-    <hyperlink ref="K36" r:id="rId11" xr:uid="{1ECA5FB5-62BF-41AD-903A-1259CEAD0897}"/>
-    <hyperlink ref="K42" r:id="rId12" xr:uid="{61F7864A-3303-304A-B8A3-54A81A5000AD}"/>
-    <hyperlink ref="K6" r:id="rId13" xr:uid="{C25861F2-4012-EB4F-AF5A-B929942390D6}"/>
-    <hyperlink ref="K28" r:id="rId14" xr:uid="{F94FC356-FE9D-A04E-827E-D68C060E26FF}"/>
-    <hyperlink ref="K29" r:id="rId15" xr:uid="{9B30B646-3781-7B42-91C3-677AF952D8CE}"/>
-    <hyperlink ref="K31" r:id="rId16" xr:uid="{FF868B76-4732-B847-8E96-43988CE8031C}"/>
-    <hyperlink ref="K27" r:id="rId17" xr:uid="{A0F54FE6-4F0C-F54C-9824-0639F3EDE07D}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{66BC1D43-8B36-4C42-A6BE-AADB464B21FC}"/>
+    <hyperlink ref="K11" r:id="rId3" xr:uid="{B9B279E7-601D-467B-BCC9-81177DF4E43A}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{E070AC7A-4F8B-4FD2-8137-436AA20A4F01}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{F9C778E3-0440-4BD3-9E35-5159C67C1E0A}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{A9921424-E7F0-4E43-89D7-A9FD857B4691}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{F3BAC0C6-4BDB-4A22-875C-4FC46E689002}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{DB8E86BF-11E4-49EB-B0EB-030C207C7D12}"/>
+    <hyperlink ref="K4" r:id="rId9" xr:uid="{554E56EE-9A71-4A5E-943F-80513308F4B5}"/>
+    <hyperlink ref="K24" r:id="rId10" xr:uid="{112D7A31-330A-4DC4-84E8-EFFD9AC3D674}"/>
+    <hyperlink ref="K35" r:id="rId11" xr:uid="{1ECA5FB5-62BF-41AD-903A-1259CEAD0897}"/>
+    <hyperlink ref="K41" r:id="rId12" xr:uid="{61F7864A-3303-304A-B8A3-54A81A5000AD}"/>
+    <hyperlink ref="K5" r:id="rId13" xr:uid="{C25861F2-4012-EB4F-AF5A-B929942390D6}"/>
+    <hyperlink ref="K27" r:id="rId14" xr:uid="{F94FC356-FE9D-A04E-827E-D68C060E26FF}"/>
+    <hyperlink ref="K28" r:id="rId15" xr:uid="{9B30B646-3781-7B42-91C3-677AF952D8CE}"/>
+    <hyperlink ref="K30" r:id="rId16" xr:uid="{FF868B76-4732-B847-8E96-43988CE8031C}"/>
+    <hyperlink ref="K26" r:id="rId17" xr:uid="{A0F54FE6-4F0C-F54C-9824-0639F3EDE07D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3584,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C7E8-D2AB-7745-83FB-7F891146BD90}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,46 +3563,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>10</v>
@@ -3656,1106 +3610,1106 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="K3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>30</v>
+      <c r="O3" s="18" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>422</v>
+        <v>184</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>423</v>
+        <v>184</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="L9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>424</v>
+        <v>184</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>447</v>
+      <c r="O11" s="18" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="O18" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N13" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="O19" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="I20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="M20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="N20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O18" s="22" t="s">
+      <c r="O20" s="18" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O22" s="22" t="s">
+      <c r="O23" s="2" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="O24" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -4770,157 +4724,157 @@
         <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="O28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4941,6 +4895,8 @@
     <hyperlink ref="O20" r:id="rId14" xr:uid="{6EAEAA37-3C61-DB47-B008-41CA3EDE1EA4}"/>
     <hyperlink ref="O22" r:id="rId15" xr:uid="{E822A8F1-7823-2C40-B059-374ED2FEF771}"/>
     <hyperlink ref="O19" r:id="rId16" xr:uid="{D3110B24-A369-BB40-8D9F-E60C365CC798}"/>
+    <hyperlink ref="O17" r:id="rId17" xr:uid="{1371A3AF-1891-C043-A160-3A55BE424675}"/>
+    <hyperlink ref="O3" r:id="rId18" xr:uid="{A794AB7F-A018-8B47-8860-92FD5ACD320E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4968,19 +4924,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>9</v>
@@ -4995,16 +4951,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -5013,76 +4969,76 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -5091,414 +5047,414 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
@@ -5507,128 +5463,128 @@
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>18</v>
@@ -5637,206 +5593,206 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -5845,102 +5801,102 @@
         <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>18</v>
@@ -5949,102 +5905,102 @@
         <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>18</v>
@@ -6053,180 +6009,180 @@
         <v>20</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>18</v>
@@ -6235,10 +6191,10 @@
         <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6276,1927 +6232,1927 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>426</v>
+      <c r="K8" s="18" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>427</v>
+        <v>322</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>437</v>
+      <c r="K13" s="18" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>360</v>
-      </c>
       <c r="B18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>428</v>
+      <c r="K18" s="18" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>429</v>
+      <c r="K19" s="18" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>430</v>
+      <c r="K20" s="18" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>432</v>
+        <v>364</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>433</v>
+        <v>317</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>380</v>
+        <v>322</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>383</v>
+        <v>322</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>383</v>
+        <v>322</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>434</v>
+      <c r="K34" s="18" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>435</v>
+      <c r="K35" s="18" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>436</v>
+        <v>353</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>396</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>438</v>
+        <v>343</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
         <v>406</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K47" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">

--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D49CA53-F58E-F344-BBAA-5AF3E6D397B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E592B1F-9158-9B41-B5C4-0DD985074CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14480" yWindow="760" windowWidth="15500" windowHeight="17320" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="457">
   <si>
     <t>Size</t>
   </si>
@@ -1407,6 +1407,9 @@
   </si>
   <si>
     <t>https://www.buypt.com/product/ES5141.CR.BG-High-precision-Ergo-tek-Ideal-Tek-Small-Oval-head-cutter/64547/</t>
+  </si>
+  <si>
+    <t>0.001mm</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1579,9 +1582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99344F-81E2-BA47-894F-A255B1AD062C}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3384,13 +3384,13 @@
         <v>150</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>456</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>152</v>
@@ -3419,13 +3419,13 @@
         <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
+        <v>456</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>123</v>
@@ -3454,13 +3454,13 @@
         <v>150</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>456</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>26</v>
@@ -3489,13 +3489,13 @@
         <v>150</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>15</v>
+        <v>456</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>117</v>
@@ -3655,47 +3655,47 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="4" t="s">
         <v>184</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -8345,18 +8345,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8378,6 +8378,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB09132C-7D10-47B1-BBD2-EDAD89D0ACFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8391,12 +8399,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A14C30-A434-484E-974C-668B7437489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7970A6-6DB0-864B-B2B6-D9FA7DB0C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
+    <workbookView xWindow="14480" yWindow="760" windowWidth="15500" windowHeight="17320" activeTab="2" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Excelta" sheetId="1" r:id="rId1"/>
@@ -818,9 +818,6 @@
     <t>Type of Cut</t>
   </si>
   <si>
-    <t>Lowest Cutting Capacity Inches</t>
-  </si>
-  <si>
     <t>Highest Cutting Capacity Inches</t>
   </si>
   <si>
@@ -1410,6 +1407,10 @@
   </si>
   <si>
     <t>Link to Purchase</t>
+  </si>
+  <si>
+    <t>Lowest Cutting 
+Capacity Inches</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1584,6 +1585,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2110,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2845,7 +2849,7 @@
         <v>105</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2880,7 +2884,7 @@
         <v>105</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2915,7 +2919,7 @@
         <v>110</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2985,7 +2989,7 @@
         <v>117</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3370,7 +3374,7 @@
         <v>123</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3387,7 +3391,7 @@
         <v>149</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>150</v>
@@ -3422,7 +3426,7 @@
         <v>149</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>121</v>
@@ -3457,7 +3461,7 @@
         <v>149</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>23</v>
@@ -3492,7 +3496,7 @@
         <v>149</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>115</v>
@@ -3608,7 +3612,7 @@
         <v>173</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3655,7 +3659,7 @@
         <v>183</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3702,7 +3706,7 @@
         <v>183</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3796,7 +3800,7 @@
         <v>183</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3843,7 +3847,7 @@
         <v>183</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3890,7 +3894,7 @@
         <v>183</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3984,7 +3988,7 @@
         <v>183</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4031,7 +4035,7 @@
         <v>183</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4078,7 +4082,7 @@
         <v>183</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4125,7 +4129,7 @@
         <v>183</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4172,7 +4176,7 @@
         <v>183</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4219,7 +4223,7 @@
         <v>183</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4266,7 +4270,7 @@
         <v>183</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4313,7 +4317,7 @@
         <v>183</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -4360,7 +4364,7 @@
         <v>183</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -4407,7 +4411,7 @@
         <v>183</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -4501,7 +4505,7 @@
         <v>183</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -4595,7 +4599,7 @@
         <v>183</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -4642,7 +4646,7 @@
         <v>183</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -4909,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F946966-F053-D649-B3B7-4D418F3A2D00}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4918,14 +4922,14 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="111.6640625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>257</v>
       </c>
@@ -4935,11 +4939,11 @@
       <c r="C1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>9</v>
@@ -4948,13 +4952,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>189</v>
@@ -4963,7 +4967,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -4972,24 +4976,24 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -4998,15 +5002,15 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>189</v>
@@ -5015,7 +5019,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>122</v>
@@ -5024,15 +5028,15 @@
         <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>189</v>
@@ -5041,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -5050,24 +5054,24 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>122</v>
@@ -5076,15 +5080,15 @@
         <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>189</v>
@@ -5093,24 +5097,24 @@
         <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>189</v>
@@ -5119,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -5128,41 +5132,41 @@
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>189</v>
@@ -5171,7 +5175,7 @@
         <v>149</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>151</v>
@@ -5180,15 +5184,15 @@
         <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>189</v>
@@ -5197,7 +5201,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -5206,41 +5210,41 @@
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>189</v>
@@ -5249,7 +5253,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>116</v>
@@ -5258,15 +5262,15 @@
         <v>117</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>189</v>
@@ -5275,7 +5279,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -5284,24 +5288,24 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>151</v>
@@ -5310,15 +5314,15 @@
         <v>152</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>189</v>
@@ -5327,7 +5331,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>116</v>
@@ -5336,15 +5340,15 @@
         <v>117</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>189</v>
@@ -5353,7 +5357,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -5362,24 +5366,24 @@
         <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -5388,15 +5392,15 @@
         <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>189</v>
@@ -5405,7 +5409,7 @@
         <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>122</v>
@@ -5414,15 +5418,15 @@
         <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>189</v>
@@ -5431,7 +5435,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>75</v>
@@ -5440,24 +5444,24 @@
         <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -5466,15 +5470,15 @@
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>189</v>
@@ -5483,7 +5487,7 @@
         <v>149</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>33</v>
@@ -5492,24 +5496,24 @@
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>151</v>
@@ -5518,24 +5522,24 @@
         <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>116</v>
@@ -5544,41 +5548,41 @@
         <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>43</v>
@@ -5587,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -5596,24 +5600,24 @@
         <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>122</v>
@@ -5622,15 +5626,15 @@
         <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -5639,24 +5643,24 @@
         <v>149</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
@@ -5665,7 +5669,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>75</v>
@@ -5674,24 +5678,24 @@
         <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>33</v>
@@ -5700,15 +5704,15 @@
         <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
@@ -5717,7 +5721,7 @@
         <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>116</v>
@@ -5726,15 +5730,15 @@
         <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>189</v>
@@ -5743,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>25</v>
@@ -5752,41 +5756,41 @@
         <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
         <v>189</v>
@@ -5795,7 +5799,7 @@
         <v>149</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -5804,15 +5808,15 @@
         <v>18</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
@@ -5821,50 +5825,50 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>214</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>43</v>
@@ -5873,7 +5877,7 @@
         <v>149</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -5882,15 +5886,15 @@
         <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>43</v>
@@ -5899,7 +5903,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
@@ -5908,24 +5912,24 @@
         <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>25</v>
@@ -5934,15 +5938,15 @@
         <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>43</v>
@@ -5951,7 +5955,7 @@
         <v>149</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>151</v>
@@ -5960,15 +5964,15 @@
         <v>152</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -5977,33 +5981,33 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -6012,15 +6016,15 @@
         <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -6029,7 +6033,7 @@
         <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>122</v>
@@ -6038,15 +6042,15 @@
         <v>123</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -6055,7 +6059,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -6064,24 +6068,24 @@
         <v>76</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>33</v>
@@ -6090,15 +6094,15 @@
         <v>27</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>43</v>
@@ -6107,24 +6111,24 @@
         <v>149</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>43</v>
@@ -6133,50 +6137,50 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>43</v>
@@ -6185,7 +6189,7 @@
         <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -6194,10 +6198,10 @@
         <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6238,198 +6242,198 @@
         <v>160</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>310</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
@@ -6437,104 +6441,104 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="K8" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
@@ -6542,208 +6546,208 @@
         <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>342</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K13" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>28</v>
@@ -6752,33 +6756,33 @@
         <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>28</v>
@@ -6787,27 +6791,27 @@
         <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>28</v>
@@ -6822,27 +6826,27 @@
         <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>28</v>
@@ -6857,27 +6861,27 @@
         <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>28</v>
@@ -6892,27 +6896,27 @@
         <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>28</v>
@@ -6927,27 +6931,27 @@
         <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>28</v>
@@ -6962,27 +6966,27 @@
         <v>28</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>28</v>
@@ -6997,27 +7001,27 @@
         <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>28</v>
@@ -7032,27 +7036,27 @@
         <v>28</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -7067,34 +7071,34 @@
         <v>28</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
@@ -7102,69 +7106,69 @@
         <v>28</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H27" s="2" t="s">
         <v>28</v>
       </c>
@@ -7172,139 +7176,139 @@
         <v>28</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H31" s="2" t="s">
         <v>28</v>
       </c>
@@ -7312,34 +7316,34 @@
         <v>28</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
@@ -7347,34 +7351,34 @@
         <v>28</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7382,62 +7386,62 @@
         <v>28</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K34" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>28</v>
@@ -7452,103 +7456,103 @@
         <v>28</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>28</v>
@@ -7557,68 +7561,68 @@
         <v>28</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="K39" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>28</v>
@@ -7627,27 +7631,27 @@
         <v>28</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>28</v>
@@ -7662,33 +7666,33 @@
         <v>28</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>28</v>
@@ -7697,173 +7701,173 @@
         <v>28</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K44" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>28</v>
@@ -7872,33 +7876,33 @@
         <v>28</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>28</v>
@@ -7907,103 +7911,103 @@
         <v>28</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>28</v>
@@ -8012,33 +8016,33 @@
         <v>28</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>28</v>
@@ -8047,34 +8051,34 @@
         <v>28</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H53" s="2" t="s">
         <v>28</v>
       </c>
@@ -8082,34 +8086,34 @@
         <v>28</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="H54" s="2" t="s">
         <v>28</v>
       </c>
@@ -8117,45 +8121,45 @@
         <v>28</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">

--- a/Cutter_Correlation_Chart5HF.xlsx
+++ b/Cutter_Correlation_Chart5HF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Documents/Practical/Matt/streamlit/Cutter_Correlation_Chart/cccFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7970A6-6DB0-864B-B2B6-D9FA7DB0C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D34E18-4800-1A4A-9F98-5002BEFB6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14480" yWindow="760" windowWidth="15500" windowHeight="17320" activeTab="2" xr2:uid="{BC2D26E0-029F-9846-9D29-C05233DC100E}"/>
   </bookViews>
@@ -1409,8 +1409,7 @@
     <t>Link to Purchase</t>
   </si>
   <si>
-    <t>Lowest Cutting 
-Capacity Inches</t>
+    <t>Lowest Cutting Capacity Inches</t>
   </si>
 </sst>
 </file>
@@ -4913,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F946966-F053-D649-B3B7-4D418F3A2D00}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4922,14 +4921,14 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="111.6640625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>257</v>
       </c>
@@ -8202,21 +8201,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002484CCDF91B6A9498E427CFC567100BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0cd3b8c834518d9192193f68f646d00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7ce44ea-a34e-4fdf-a307-9d406be6516a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4202b7b55fbc0c281921e2815b0844d8" ns3:_="">
     <xsd:import namespace="b7ce44ea-a34e-4fdf-a307-9d406be6516a"/>
@@ -8366,31 +8350,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB09132C-7D10-47B1-BBD2-EDAD89D0ACFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7ce44ea-a34e-4fdf-a307-9d406be6516a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5897BE-483D-4944-B5D5-3A5E4BC2B223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8406,4 +8381,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{414929EC-27AF-4749-9EED-E359C139D6FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB09132C-7D10-47B1-BBD2-EDAD89D0ACFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7ce44ea-a34e-4fdf-a307-9d406be6516a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>